--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X35 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X35 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>105w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,40 +135,401 @@
     <t>Avg EDFR</t>
   </si>
   <si>
-    <t>max</t>
+    <t>rest at 2200</t>
   </si>
   <si>
     <t>ABG @ rest</t>
   </si>
   <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
+    <t>105w</t>
+  </si>
+  <si>
+    <t>submax</t>
+  </si>
+  <si>
     <t>submax 2</t>
   </si>
   <si>
-    <t>submax</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,20 +537,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -215,6 +847,1158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.78</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.05</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="395901208"/>
+        <c:axId val="761444035"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="395901208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761444035"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="761444035"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395901208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3995420" y="825500"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,21 +2282,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L37" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E57" sqref="A6:A57 E6:E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +2318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -593,57 +2377,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.14046296296296296</v>
+        <v>0.140462962962963</v>
       </c>
       <c r="C6">
         <v>98</v>
@@ -691,12 +2475,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.14057870370370371</v>
+        <v>0.140578703703704</v>
       </c>
       <c r="C7">
         <v>99</v>
@@ -744,12 +2528,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.14069444444444446</v>
+        <v>0.140694444444444</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -797,15 +2581,15 @@
         <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14081018518518518</v>
+        <v>0.140810185185185</v>
       </c>
       <c r="C9">
         <v>94</v>
@@ -853,12 +2637,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.14092592592592593</v>
+        <v>0.140925925925926</v>
       </c>
       <c r="C10">
         <v>96</v>
@@ -906,12 +2690,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.14104166666666665</v>
+        <v>0.141041666666667</v>
       </c>
       <c r="C11">
         <v>91</v>
@@ -959,12 +2743,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.14115740740740743</v>
+        <v>0.141157407407407</v>
       </c>
       <c r="C12">
         <v>90</v>
@@ -1012,12 +2796,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.14127314814814815</v>
+        <v>0.141273148148148</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1026,7 +2810,7 @@
         <v>54</v>
       </c>
       <c r="E13">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="F13">
         <v>3.78</v>
@@ -1065,12 +2849,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.1413888888888889</v>
+        <v>0.141388888888889</v>
       </c>
       <c r="C14">
         <v>90</v>
@@ -1079,7 +2863,7 @@
         <v>55</v>
       </c>
       <c r="E14">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="F14">
         <v>3.81</v>
@@ -1118,12 +2902,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.14150462962962962</v>
+        <v>0.14150462962963</v>
       </c>
       <c r="C15">
         <v>94</v>
@@ -1171,12 +2955,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.14162037037037037</v>
+        <v>0.14162037037037</v>
       </c>
       <c r="C16">
         <v>95</v>
@@ -1224,12 +3008,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.14173611111111112</v>
+        <v>0.141736111111111</v>
       </c>
       <c r="C17">
         <v>90</v>
@@ -1277,75 +3061,75 @@
         <v>33</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U17" s="2">
-        <f>AVERAGE(C6:C17)</f>
-        <v>93.916666666666671</v>
+        <f t="shared" ref="U17:AI17" si="0">AVERAGE(C6:C17)</f>
+        <v>93.9166666666667</v>
       </c>
       <c r="V17" s="2">
-        <f>AVERAGE(D6:D17)</f>
-        <v>54.833333333333336</v>
+        <f t="shared" si="0"/>
+        <v>54.8333333333333</v>
       </c>
       <c r="W17" s="2">
-        <f>AVERAGE(E6:E17)</f>
-        <v>5.2233333333333336</v>
+        <f t="shared" si="0"/>
+        <v>5.22333333333333</v>
       </c>
       <c r="X17" s="2">
-        <f>AVERAGE(F6:F17)</f>
-        <v>3.9983333333333335</v>
+        <f t="shared" si="0"/>
+        <v>3.99833333333333</v>
       </c>
       <c r="Y17" s="2">
-        <f>AVERAGE(G6:G17)</f>
-        <v>71.833333333333329</v>
+        <f t="shared" si="0"/>
+        <v>71.8333333333333</v>
       </c>
       <c r="Z17" s="2">
-        <f>AVERAGE(H6:H17)</f>
+        <f t="shared" si="0"/>
         <v>432.25</v>
       </c>
       <c r="AA17" s="2">
-        <f>AVERAGE(I6:I17)</f>
-        <v>195.66666666666666</v>
+        <f t="shared" si="0"/>
+        <v>195.666666666667</v>
       </c>
       <c r="AB17" s="2">
-        <f>AVERAGE(J6:J17)</f>
-        <v>94.833333333333329</v>
+        <f t="shared" si="0"/>
+        <v>94.8333333333333</v>
       </c>
       <c r="AC17" s="2">
-        <f>AVERAGE(K6:K17)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="AD17" s="2">
-        <f>AVERAGE(L6:L17)</f>
+        <f t="shared" si="0"/>
         <v>75.75</v>
       </c>
       <c r="AE17" s="2">
-        <f>AVERAGE(M6:M17)</f>
-        <v>901.16666666666663</v>
+        <f t="shared" si="0"/>
+        <v>901.166666666667</v>
       </c>
       <c r="AF17" s="2">
-        <f>AVERAGE(N6:N17)</f>
-        <v>1177.5833333333333</v>
+        <f t="shared" si="0"/>
+        <v>1177.58333333333</v>
       </c>
       <c r="AG17" s="2">
-        <f>AVERAGE(O6:O17)</f>
-        <v>3.2024999999999992</v>
+        <f t="shared" si="0"/>
+        <v>3.2025</v>
       </c>
       <c r="AH17" s="2">
-        <f>AVERAGE(P6:P17)</f>
-        <v>67.916666666666671</v>
+        <f t="shared" si="0"/>
+        <v>67.9166666666667</v>
       </c>
       <c r="AI17" s="2">
-        <f>AVERAGE(Q6:Q17)</f>
-        <v>33.833333333333336</v>
+        <f t="shared" si="0"/>
+        <v>33.8333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.14185185185185187</v>
+        <v>0.141851851851852</v>
       </c>
       <c r="C18">
         <v>94</v>
@@ -1408,12 +3192,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.14196759259259259</v>
+        <v>0.141967592592593</v>
       </c>
       <c r="C19">
         <v>94</v>
@@ -1476,12 +3260,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.14208333333333334</v>
+        <v>0.142083333333333</v>
       </c>
       <c r="C20">
         <v>86</v>
@@ -1490,7 +3274,7 @@
         <v>53</v>
       </c>
       <c r="E20">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F20">
         <v>3.53</v>
@@ -1544,12 +3328,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.14219907407407409</v>
+        <v>0.142199074074074</v>
       </c>
       <c r="C21">
         <v>87</v>
@@ -1558,7 +3342,7 @@
         <v>51</v>
       </c>
       <c r="E21">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="F21">
         <v>3.49</v>
@@ -1612,12 +3396,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.14231481481481481</v>
+        <v>0.142314814814815</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -1665,7 +3449,7 @@
         <v>37</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -1683,12 +3467,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.14243055555555556</v>
+        <v>0.142430555555556</v>
       </c>
       <c r="C23">
         <v>104</v>
@@ -1700,7 +3484,7 @@
         <v>5.8</v>
       </c>
       <c r="F23">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="G23">
         <v>71</v>
@@ -1751,12 +3535,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.14254629629629631</v>
+        <v>0.142546296296296</v>
       </c>
       <c r="C24">
         <v>118</v>
@@ -1819,12 +3603,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.14266203703703703</v>
+        <v>0.142662037037037</v>
       </c>
       <c r="C25">
         <v>121</v>
@@ -1863,7 +3647,7 @@
         <v>905</v>
       </c>
       <c r="O25">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="P25">
         <v>61</v>
@@ -1887,12 +3671,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.14277777777777778</v>
+        <v>0.142777777777778</v>
       </c>
       <c r="C26">
         <v>127</v>
@@ -1955,12 +3739,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.14289351851851853</v>
+        <v>0.142893518518519</v>
       </c>
       <c r="C27">
         <v>129</v>
@@ -2023,12 +3807,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.14300925925925925</v>
+        <v>0.143009259259259</v>
       </c>
       <c r="C28">
         <v>132</v>
@@ -2067,7 +3851,7 @@
         <v>749</v>
       </c>
       <c r="O28">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="P28">
         <v>72</v>
@@ -2091,9 +3875,9 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
         <v>0.143125</v>
@@ -2159,12 +3943,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.14324074074074075</v>
+        <v>0.143240740740741</v>
       </c>
       <c r="C30">
         <v>137</v>
@@ -2227,12 +4011,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.14335648148148147</v>
+        <v>0.143356481481481</v>
       </c>
       <c r="C31">
         <v>137</v>
@@ -2241,7 +4025,7 @@
         <v>59</v>
       </c>
       <c r="E31">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="F31">
         <v>6.28</v>
@@ -2295,12 +4079,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.14347222222222222</v>
+        <v>0.143472222222222</v>
       </c>
       <c r="C32">
         <v>139</v>
@@ -2309,7 +4093,7 @@
         <v>60</v>
       </c>
       <c r="E32">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="F32">
         <v>6.48</v>
@@ -2363,12 +4147,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.14358796296296297</v>
+        <v>0.143587962962963</v>
       </c>
       <c r="C33">
         <v>142</v>
@@ -2377,7 +4161,7 @@
         <v>60</v>
       </c>
       <c r="E33">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="F33">
         <v>6.6</v>
@@ -2431,12 +4215,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.14370370370370369</v>
+        <v>0.143703703703704</v>
       </c>
       <c r="C34">
         <v>142</v>
@@ -2499,12 +4283,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.14381944444444444</v>
+        <v>0.143819444444444</v>
       </c>
       <c r="C35">
         <v>142</v>
@@ -2513,7 +4297,7 @@
         <v>61</v>
       </c>
       <c r="E35">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="F35">
         <v>6.72</v>
@@ -2567,12 +4351,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.14393518518518519</v>
+        <v>0.143935185185185</v>
       </c>
       <c r="C36">
         <v>138</v>
@@ -2581,7 +4365,7 @@
         <v>61</v>
       </c>
       <c r="E36">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="F36">
         <v>6.48</v>
@@ -2635,12 +4419,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.14405092592592592</v>
+        <v>0.144050925925926</v>
       </c>
       <c r="C37">
         <v>136</v>
@@ -2679,7 +4463,7 @@
         <v>735</v>
       </c>
       <c r="O37">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="P37">
         <v>66</v>
@@ -2703,12 +4487,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.14416666666666667</v>
+        <v>0.144166666666667</v>
       </c>
       <c r="C38">
         <v>136</v>
@@ -2771,12 +4555,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.14428240740740741</v>
+        <v>0.144282407407407</v>
       </c>
       <c r="C39">
         <v>139</v>
@@ -2785,7 +4569,7 @@
         <v>64</v>
       </c>
       <c r="E39">
-        <v>9.0500000000000007</v>
+        <v>9.05</v>
       </c>
       <c r="F39">
         <v>6.92</v>
@@ -2839,12 +4623,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.14439814814814814</v>
+        <v>0.144398148148148</v>
       </c>
       <c r="C40">
         <v>143</v>
@@ -2907,12 +4691,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.14451388888888889</v>
+        <v>0.144513888888889</v>
       </c>
       <c r="C41">
         <v>146</v>
@@ -2921,7 +4705,7 @@
         <v>61</v>
       </c>
       <c r="E41">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="F41">
         <v>6.86</v>
@@ -2960,7 +4744,7 @@
         <v>36</v>
       </c>
       <c r="S41" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -2978,12 +4762,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.14462962962962964</v>
+        <v>0.14462962962963</v>
       </c>
       <c r="C42">
         <v>152</v>
@@ -3046,12 +4830,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.14474537037037036</v>
+        <v>0.14474537037037</v>
       </c>
       <c r="C43">
         <v>153</v>
@@ -3114,12 +4898,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.14486111111111111</v>
+        <v>0.144861111111111</v>
       </c>
       <c r="C44">
         <v>155</v>
@@ -3182,12 +4966,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.14497685185185186</v>
+        <v>0.144976851851852</v>
       </c>
       <c r="C45">
         <v>159</v>
@@ -3196,7 +4980,7 @@
         <v>62</v>
       </c>
       <c r="E45">
-        <v>9.9499999999999993</v>
+        <v>9.95</v>
       </c>
       <c r="F45">
         <v>7.62</v>
@@ -3250,12 +5034,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.14509259259259258</v>
+        <v>0.145092592592593</v>
       </c>
       <c r="C46">
         <v>161</v>
@@ -3303,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="S46" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -3321,12 +5105,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.14520833333333333</v>
+        <v>0.145208333333333</v>
       </c>
       <c r="C47">
         <v>164</v>
@@ -3374,75 +5158,75 @@
         <v>34</v>
       </c>
       <c r="S47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U47" s="2">
-        <f>AVERAGE(C41:C47)</f>
-        <v>155.71428571428572</v>
+        <f t="shared" ref="U47:AI47" si="1">AVERAGE(C41:C47)</f>
+        <v>155.714285714286</v>
       </c>
       <c r="V47" s="2">
-        <f>AVERAGE(D41:D47)</f>
-        <v>61.857142857142854</v>
+        <f t="shared" si="1"/>
+        <v>61.8571428571429</v>
       </c>
       <c r="W47" s="2">
-        <f>AVERAGE(E41:E47)</f>
-        <v>9.7085714285714282</v>
+        <f t="shared" si="1"/>
+        <v>9.70857142857143</v>
       </c>
       <c r="X47" s="2">
-        <f>AVERAGE(F41:F47)</f>
-        <v>7.4328571428571433</v>
+        <f t="shared" si="1"/>
+        <v>7.43285714285714</v>
       </c>
       <c r="Y47" s="2">
-        <f>AVERAGE(G41:G47)</f>
-        <v>73.571428571428569</v>
+        <f t="shared" si="1"/>
+        <v>73.5714285714286</v>
       </c>
       <c r="Z47" s="2">
-        <f>AVERAGE(H41:H47)</f>
-        <v>264.85714285714283</v>
+        <f t="shared" si="1"/>
+        <v>264.857142857143</v>
       </c>
       <c r="AA47" s="2">
-        <f>AVERAGE(I41:I47)</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="AB47" s="2">
-        <f>AVERAGE(J41:J47)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="AC47" s="2">
-        <f>AVERAGE(K41:K47)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="AD47" s="2">
-        <f>AVERAGE(L41:L47)</f>
-        <v>83.285714285714292</v>
+        <f t="shared" si="1"/>
+        <v>83.2857142857143</v>
       </c>
       <c r="AE47" s="2">
-        <f>AVERAGE(M41:M47)</f>
-        <v>483.71428571428572</v>
+        <f t="shared" si="1"/>
+        <v>483.714285714286</v>
       </c>
       <c r="AF47" s="2">
-        <f>AVERAGE(N41:N47)</f>
-        <v>632.42857142857144</v>
+        <f t="shared" si="1"/>
+        <v>632.428571428571</v>
       </c>
       <c r="AG47" s="2">
-        <f>AVERAGE(O41:O47)</f>
-        <v>5.9585714285714291</v>
+        <f t="shared" si="1"/>
+        <v>5.95857142857143</v>
       </c>
       <c r="AH47" s="2">
-        <f>AVERAGE(P41:P47)</f>
-        <v>52.571428571428569</v>
+        <f t="shared" si="1"/>
+        <v>52.5714285714286</v>
       </c>
       <c r="AI47" s="2">
-        <f>AVERAGE(Q41:Q47)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.14532407407407408</v>
+        <v>0.145324074074074</v>
       </c>
       <c r="C48">
         <v>165</v>
@@ -3505,12 +5289,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.1454398148148148</v>
+        <v>0.145439814814815</v>
       </c>
       <c r="C49">
         <v>167</v>
@@ -3519,7 +5303,7 @@
         <v>61</v>
       </c>
       <c r="E49">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="F49">
         <v>7.82</v>
@@ -3573,12 +5357,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.14555555555555555</v>
+        <v>0.145555555555556</v>
       </c>
       <c r="C50">
         <v>169</v>
@@ -3587,7 +5371,7 @@
         <v>59</v>
       </c>
       <c r="E50">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="F50">
         <v>7.69</v>
@@ -3626,75 +5410,75 @@
         <v>41</v>
       </c>
       <c r="S50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U50" s="2">
-        <f>AVERAGE(C47:C50)</f>
+        <f t="shared" ref="U50:AI50" si="2">AVERAGE(C47:C50)</f>
         <v>166.25</v>
       </c>
       <c r="V50" s="2">
-        <f>AVERAGE(D47:D50)</f>
+        <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
       <c r="W50" s="2">
-        <f>AVERAGE(E47:E50)</f>
-        <v>9.9875000000000007</v>
+        <f t="shared" si="2"/>
+        <v>9.9875</v>
       </c>
       <c r="X50" s="2">
-        <f>AVERAGE(F47:F50)</f>
-        <v>7.6450000000000005</v>
+        <f t="shared" si="2"/>
+        <v>7.645</v>
       </c>
       <c r="Y50" s="2">
-        <f>AVERAGE(G47:G50)</f>
+        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
       <c r="Z50" s="2">
-        <f>AVERAGE(H47:H50)</f>
+        <f t="shared" si="2"/>
         <v>248.75</v>
       </c>
       <c r="AA50" s="2">
-        <f>AVERAGE(I47:I50)</f>
+        <f t="shared" si="2"/>
         <v>192.75</v>
       </c>
       <c r="AB50" s="2">
-        <f>AVERAGE(J47:J50)</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="AC50" s="2">
-        <f>AVERAGE(K47:K50)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="AD50" s="2">
-        <f>AVERAGE(L47:L50)</f>
+        <f t="shared" si="2"/>
         <v>82.75</v>
       </c>
       <c r="AE50" s="2">
-        <f>AVERAGE(M47:M50)</f>
+        <f t="shared" si="2"/>
         <v>471.25</v>
       </c>
       <c r="AF50" s="2">
-        <f>AVERAGE(N47:N50)</f>
+        <f t="shared" si="2"/>
         <v>615.5</v>
       </c>
       <c r="AG50" s="2">
-        <f>AVERAGE(O47:O50)</f>
-        <v>6.1300000000000008</v>
+        <f t="shared" si="2"/>
+        <v>6.13</v>
       </c>
       <c r="AH50" s="2">
-        <f>AVERAGE(P47:P50)</f>
+        <f t="shared" si="2"/>
         <v>46.5</v>
       </c>
       <c r="AI50" s="2">
-        <f>AVERAGE(Q47:Q50)</f>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.1456712962962963</v>
+        <v>0.145671296296296</v>
       </c>
       <c r="C51">
         <v>170</v>
@@ -3742,7 +5526,7 @@
         <v>35</v>
       </c>
       <c r="S51" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -3760,12 +5544,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.14578703703703702</v>
+        <v>0.145787037037037</v>
       </c>
       <c r="C52">
         <v>167</v>
@@ -3813,75 +5597,75 @@
         <v>38</v>
       </c>
       <c r="S52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U52" s="2">
-        <f>AVERAGE(C47:C52)</f>
+        <f t="shared" ref="U52:AI52" si="3">AVERAGE(C47:C52)</f>
         <v>167</v>
       </c>
       <c r="V52" s="2">
-        <f>AVERAGE(D47:D52)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="W52" s="2">
-        <f>AVERAGE(E47:E52)</f>
+        <f t="shared" si="3"/>
         <v>10.115</v>
       </c>
       <c r="X52" s="2">
-        <f>AVERAGE(F47:F52)</f>
-        <v>7.743333333333335</v>
+        <f t="shared" si="3"/>
+        <v>7.74333333333333</v>
       </c>
       <c r="Y52" s="2">
-        <f>AVERAGE(G47:G52)</f>
-        <v>71.833333333333329</v>
+        <f t="shared" si="3"/>
+        <v>71.8333333333333</v>
       </c>
       <c r="Z52" s="2">
-        <f>AVERAGE(H47:H52)</f>
-        <v>240.16666666666666</v>
+        <f t="shared" si="3"/>
+        <v>240.166666666667</v>
       </c>
       <c r="AA52" s="2">
-        <f>AVERAGE(I47:I52)</f>
-        <v>197.33333333333334</v>
+        <f t="shared" si="3"/>
+        <v>197.333333333333</v>
       </c>
       <c r="AB52" s="2">
-        <f>AVERAGE(J47:J52)</f>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="AC52" s="2">
-        <f>AVERAGE(K47:K52)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="AD52" s="2">
-        <f>AVERAGE(L47:L52)</f>
-        <v>82.833333333333329</v>
+        <f t="shared" si="3"/>
+        <v>82.8333333333333</v>
       </c>
       <c r="AE52" s="2">
-        <f>AVERAGE(M47:M52)</f>
-        <v>465.16666666666669</v>
+        <f t="shared" si="3"/>
+        <v>465.166666666667</v>
       </c>
       <c r="AF52" s="2">
-        <f>AVERAGE(N47:N52)</f>
+        <f t="shared" si="3"/>
         <v>607.5</v>
       </c>
       <c r="AG52" s="2">
-        <f>AVERAGE(O47:O52)</f>
-        <v>6.206666666666667</v>
+        <f t="shared" si="3"/>
+        <v>6.20666666666667</v>
       </c>
       <c r="AH52" s="2">
-        <f>AVERAGE(P47:P52)</f>
-        <v>47.833333333333336</v>
+        <f t="shared" si="3"/>
+        <v>47.8333333333333</v>
       </c>
       <c r="AI52" s="2">
-        <f>AVERAGE(Q47:Q52)</f>
-        <v>33.833333333333336</v>
+        <f t="shared" si="3"/>
+        <v>33.8333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.1459027777777778</v>
+        <v>0.145902777777778</v>
       </c>
       <c r="C53">
         <v>155</v>
@@ -3929,12 +5713,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.14601851851851852</v>
+        <v>0.146018518518519</v>
       </c>
       <c r="C54">
         <v>147</v>
@@ -3943,7 +5727,7 @@
         <v>55</v>
       </c>
       <c r="E54">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="F54">
         <v>6.29</v>
@@ -3982,12 +5766,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.14613425925925927</v>
+        <v>0.146134259259259</v>
       </c>
       <c r="C55">
         <v>143</v>
@@ -4035,12 +5819,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.14624999999999999</v>
+        <v>0.14625</v>
       </c>
       <c r="C56">
         <v>138</v>
@@ -4079,7 +5863,7 @@
         <v>853</v>
       </c>
       <c r="O56">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="P56">
         <v>53</v>
@@ -4088,12 +5872,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.14636574074074074</v>
+        <v>0.146365740740741</v>
       </c>
       <c r="C57">
         <v>134</v>
@@ -4132,7 +5916,7 @@
         <v>845</v>
       </c>
       <c r="O57">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="P57">
         <v>56</v>
@@ -4141,36 +5925,46 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>